--- a/ResEditor/Design/Stage/G_PlayerBullet.xlsx
+++ b/ResEditor/Design/Stage/G_PlayerBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4100" yWindow="9040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,18 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,23 +94,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEx</t>
+    <t>红色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色咒符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色咒符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +133,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -164,14 +174,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,15 +518,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -523,22 +539,22 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -549,21 +565,18 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -575,21 +588,18 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -599,55 +609,57 @@
       <c r="A6" s="1">
         <v>10500001</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
       <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
         <v>999</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10500002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
       <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
         <v>999</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ResEditor/Design/Stage/G_PlayerBullet.xlsx
+++ b/ResEditor/Design/Stage/G_PlayerBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="9040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8480" yWindow="12640" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,8 +198,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -183,9 +209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,23 +543,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="5" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -545,19 +574,25 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -571,16 +606,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -594,18 +635,24 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:10" hidden="1"/>
+    <row r="5" spans="1:10" hidden="1"/>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>10500001</v>
       </c>
@@ -616,19 +663,25 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>999</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>999</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>10500002</v>
       </c>
@@ -639,19 +692,25 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>999</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/ResEditor/Design/Stage/G_PlayerBullet.xlsx
+++ b/ResEditor/Design/Stage/G_PlayerBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="12640" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="7420" yWindow="10640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -198,8 +198,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,11 +213,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,7 +554,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
